--- a/file/personal/roleImportant/角色要事记录表_2020.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>角色</t>
   </si>
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -228,16 +228,123 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,15 +357,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,108 +370,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,205 +404,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,17 +656,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,7 +695,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,46 +715,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,10 +761,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,16 +773,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,119 +791,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,9 +916,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -955,58 +940,40 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,13 +985,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,109 +1363,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="33"/>
+      <c r="A5" s="26"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="33"/>
+      <c r="A6" s="26"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="30"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="37"/>
+      <c r="A9" s="30"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1535,8 +1502,8 @@
       <c r="C2" s="3">
         <v>20200728</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
@@ -1545,208 +1512,208 @@
       <c r="C3" s="3">
         <v>20200731</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="37"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="37"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1765,7 +1732,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -1796,8 +1763,8 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -1811,107 +1778,109 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:9">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="9" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" ht="14.25" spans="1:9">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" ht="14.25" spans="1:9">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" ht="28.5" spans="1:9">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" ht="28.5" spans="1:9">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="13"/>
@@ -1922,24 +1891,24 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" ht="28.5" spans="1:9">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="30"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" ht="28.5" spans="1:9">
-      <c r="A12" s="14"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
         <v>41</v>
@@ -1948,90 +1917,90 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" ht="28.5" spans="1:9">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" ht="42.75" spans="1:9">
-      <c r="A14" s="14"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" ht="14.25" spans="1:9">
-      <c r="A15" s="14"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" ht="14.25" spans="1:9">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="25" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" ht="14.25" spans="1:9">
-      <c r="A17" s="14"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" ht="14.25" spans="1:9">
-      <c r="A18" s="29"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1"/>

--- a/file/personal/roleImportant/角色要事记录表_2020.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>角色</t>
   </si>
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -227,17 +227,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,6 +243,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -258,12 +260,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -271,11 +289,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,31 +341,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,33 +356,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,13 +370,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -416,181 +416,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,6 +656,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -671,11 +695,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,41 +730,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,145 +761,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1732,7 +1732,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -1848,7 +1848,9 @@
       <c r="G7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" ht="14.25" spans="1:9">

--- a/file/personal/roleImportant/角色要事记录表_2020.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>角色</t>
   </si>
@@ -174,9 +174,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -227,6 +227,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -234,142 +370,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -416,181 +416,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,24 +658,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,41 +678,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,6 +705,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -761,10 +761,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,133 +773,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -937,9 +937,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -972,6 +969,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1732,7 +1732,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -1835,8 +1835,10 @@
       <c r="G6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" ht="14.25" spans="1:9">
       <c r="A7" s="9"/>
@@ -1848,7 +1850,7 @@
       <c r="G7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="6"/>
@@ -1863,10 +1865,10 @@
       <c r="G8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" ht="28.5" spans="1:9">
       <c r="A9" s="9"/>
@@ -1885,124 +1887,124 @@
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" ht="28.5" spans="1:9">
       <c r="A11" s="9"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="23"/>
     </row>
     <row r="12" ht="28.5" spans="1:9">
       <c r="A12" s="9"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" ht="28.5" spans="1:9">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" ht="42.75" spans="1:9">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" ht="14.25" spans="1:9">
       <c r="A15" s="9"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" ht="14.25" spans="1:9">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="21" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" ht="14.25" spans="1:9">
       <c r="A17" s="9"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" ht="14.25" spans="1:9">
-      <c r="A18" s="22"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1"/>

--- a/file/personal/roleImportant/角色要事记录表_2020.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>角色</t>
   </si>
@@ -175,8 +175,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -228,6 +228,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,7 +242,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,28 +271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -302,8 +295,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,7 +357,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,30 +370,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -398,37 +398,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,157 +560,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,17 +656,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -684,9 +673,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,8 +733,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,30 +753,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -761,10 +761,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,133 +773,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -931,16 +931,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,7 +955,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -970,7 +970,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1732,7 +1732,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -1822,26 +1822,28 @@
       <c r="G5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="22"/>
     </row>
     <row r="7" ht="14.25" spans="1:9">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1850,28 +1852,28 @@
       <c r="G7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" ht="14.25" spans="1:9">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="22"/>
     </row>
     <row r="9" ht="28.5" spans="1:9">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
         <v>37</v>
@@ -1895,11 +1897,11 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="22"/>
     </row>
     <row r="11" ht="28.5" spans="1:9">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
         <v>40</v>
@@ -1912,7 +1914,7 @@
       <c r="I11" s="23"/>
     </row>
     <row r="12" ht="28.5" spans="1:9">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
         <v>41</v>
@@ -1921,7 +1923,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="22"/>
     </row>
     <row r="13" ht="28.5" spans="1:9">
@@ -1940,8 +1942,8 @@
       <c r="I13" s="16"/>
     </row>
     <row r="14" ht="42.75" spans="1:9">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="17"/>
@@ -1953,7 +1955,7 @@
       <c r="I14" s="17"/>
     </row>
     <row r="15" ht="14.25" spans="1:9">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="15"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1981,7 +1983,7 @@
       <c r="I16" s="16"/>
     </row>
     <row r="17" ht="14.25" spans="1:9">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>

--- a/file/personal/roleImportant/角色要事记录表_2020.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25110" windowHeight="9810" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="5" r:id="rId1"/>
@@ -151,7 +151,32 @@
     <t>生育过程中关于钱和其它重要事情</t>
   </si>
   <si>
-    <t>思考总结“为什么35岁会失业后找不到工作或现如低谷，为何35？”</t>
+    <r>
+      <t>思考总结“为什么35岁会失业后找不到工作或</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陷入</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>低谷，为何35？”</t>
+    </r>
   </si>
   <si>
     <t>相约吕蒙去苏州</t>
@@ -228,12 +253,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -241,10 +312,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,115 +390,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,25 +441,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,73 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,73 +615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,11 +707,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,47 +773,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,10 +786,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,133 +798,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1732,7 +1757,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>

--- a/file/personal/roleImportant/角色要事记录表_2020.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>角色</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>思考总结“为什么35岁会失业后找不到工作或</t>
     </r>
     <r>
@@ -253,21 +262,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,17 +360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,15 +383,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,36 +404,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -441,181 +450,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,6 +691,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -692,17 +740,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,24 +761,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,30 +787,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -786,10 +795,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -798,133 +807,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1757,7 +1766,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -1976,7 +1985,9 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="H14" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="17"/>
     </row>
     <row r="15" ht="14.25" spans="1:9">

--- a/file/personal/roleImportant/角色要事记录表_2020.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>角色</t>
   </si>
@@ -191,6 +191,12 @@
     <t>相约吕蒙去苏州</t>
   </si>
   <si>
+    <t>搁置</t>
+  </si>
+  <si>
+    <t>小老板没空</t>
+  </si>
+  <si>
     <t>第四周</t>
   </si>
   <si>
@@ -208,10 +214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -262,14 +268,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,22 +336,38 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,22 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -337,14 +389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -354,29 +398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,22 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -450,181 +456,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,25 +696,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -729,6 +731,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -744,32 +785,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -778,15 +793,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -795,10 +801,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,137 +813,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,6 +1004,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1008,6 +1017,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,104 +1414,104 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="32"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="32"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="34" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1564,190 +1576,190 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="30"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="30"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1766,7 +1778,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -1874,7 +1886,7 @@
       <c r="H6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" ht="14.25" spans="1:9">
       <c r="A7" s="10"/>
@@ -1904,7 +1916,7 @@
       <c r="H8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" ht="28.5" spans="1:9">
       <c r="A9" s="10"/>
@@ -1932,7 +1944,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="22"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" ht="28.5" spans="1:9">
       <c r="A11" s="10"/>
@@ -1945,7 +1957,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="23"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" ht="28.5" spans="1:9">
       <c r="A12" s="10"/>
@@ -1958,7 +1970,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" ht="28.5" spans="1:9">
       <c r="A13" s="5" t="s">
@@ -2000,18 +2012,22 @@
         <v>45</v>
       </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="H15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" ht="14.25" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="20" t="s">
-        <v>47</v>
+      <c r="E16" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="16"/>
@@ -2024,7 +2040,7 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -2032,9 +2048,9 @@
       <c r="I17" s="17"/>
     </row>
     <row r="18" ht="14.25" spans="1:9">
-      <c r="A18" s="21"/>
-      <c r="B18" s="20" t="s">
-        <v>49</v>
+      <c r="A18" s="22"/>
+      <c r="B18" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>

--- a/file/personal/roleImportant/角色要事记录表_2020.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>角色</t>
   </si>
@@ -214,10 +214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -268,7 +268,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,22 +382,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,90 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -462,19 +462,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,139 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,50 +698,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,8 +749,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,10 +801,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -813,133 +813,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1778,7 +1778,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -1984,7 +1984,9 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="I13" s="16"/>
     </row>
     <row r="14" ht="42.75" spans="1:9">

--- a/file/personal/roleImportant/角色要事记录表_2020.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2020.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="5" r:id="rId1"/>
     <sheet name="七月" sheetId="3" r:id="rId2"/>
     <sheet name="八月" sheetId="4" r:id="rId3"/>
-    <sheet name="九月" sheetId="6" r:id="rId4"/>
+    <sheet name="十月" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
   <si>
     <t>角色</t>
   </si>
@@ -133,10 +133,16 @@
     <t>调研各赚钱行业的特点，总结共性</t>
   </si>
   <si>
+    <t>个人太懒-十月完成</t>
+  </si>
+  <si>
     <t>第二周</t>
   </si>
   <si>
     <t>制定使命宣言即对待各事务的原则</t>
+  </si>
+  <si>
+    <t>个人太懒</t>
   </si>
   <si>
     <t>再次回答和思考事业目标问题</t>
@@ -208,6 +214,15 @@
   <si>
     <t>Seata教程-环境篇</t>
   </si>
+  <si>
+    <t>行业调研</t>
+  </si>
+  <si>
+    <t>重点行业职业调研</t>
+  </si>
+  <si>
+    <t>总结赚钱行业/职业的共同特性</t>
+  </si>
 </sst>
 </file>
 
@@ -215,11 +230,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +261,14 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <u/>
       <sz val="12"/>
       <name val="宋体"/>
@@ -255,27 +278,33 @@
     <font>
       <i/>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,21 +320,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -320,6 +334,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -329,9 +373,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,69 +432,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +454,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,13 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,90 +490,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -553,84 +659,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,6 +735,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -718,15 +755,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,8 +777,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,8 +801,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,21 +821,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -801,10 +829,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,134 +844,134 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,76 +996,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,104 +1469,104 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="28"/>
+      <c r="A5" s="37"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="28"/>
+      <c r="A6" s="37"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="32"/>
+      <c r="A8" s="41"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="32"/>
+      <c r="A9" s="41"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="41" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="41" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1576,190 +1631,190 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="28"/>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="32"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="32"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="42" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1777,8 +1832,8 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -1865,10 +1920,10 @@
       <c r="D5" s="7"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="29" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="6"/>
@@ -1883,10 +1938,10 @@
       <c r="G6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" ht="14.25" spans="1:9">
       <c r="A7" s="10"/>
@@ -1895,10 +1950,10 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="29" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="6"/>
@@ -1913,154 +1968,182 @@
       <c r="G8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" ht="28.5" spans="1:9">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" ht="28.5" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="23"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" ht="28.5" spans="1:9">
       <c r="A11" s="10"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="24"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" ht="28.5" spans="1:9">
       <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="23"/>
     </row>
     <row r="13" ht="28.5" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" ht="42.75" spans="1:9">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="17"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" ht="14.25" spans="1:9">
       <c r="A15" s="10"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="25" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="32" t="s">
         <v>47</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" ht="14.25" spans="1:9">
       <c r="A17" s="10"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" ht="14.25" spans="1:9">
-      <c r="A18" s="22"/>
-      <c r="B18" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1"/>
@@ -2083,14 +2166,257 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20200801</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20200831</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:9">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:9">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:9">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:9">
+      <c r="A11" s="10"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" ht="28.5" spans="1:9">
+      <c r="A12" s="10"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:9">
+      <c r="A15" s="10"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:9">
+      <c r="A17" s="10"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:9">
+      <c r="A18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A18"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/file/personal/roleImportant/角色要事记录表_2020.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2020.xlsx
@@ -229,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -297,14 +297,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,11 +387,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,8 +417,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,90 +432,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -490,175 +490,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,37 +724,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,8 +757,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,26 +778,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,7 +832,7 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,137 +841,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,12 +996,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,9 +1039,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,104 +1460,104 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="34"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="37"/>
+      <c r="A6" s="34"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="38"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="38"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="38" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="40" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1631,190 +1622,190 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="37"/>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="41"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="41"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1833,7 +1824,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -1920,73 +1911,73 @@
       <c r="D5" s="7"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="26" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" ht="14.25" spans="1:9">
-      <c r="A7" s="10"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="26" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" ht="14.25" spans="1:9">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" ht="28.5" spans="1:9">
-      <c r="A9" s="10"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1994,52 +1985,52 @@
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="30" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:9">
-      <c r="A11" s="10"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="31" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="30" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="23" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:9">
-      <c r="A12" s="10"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="30" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2047,48 +2038,48 @@
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="28" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="29" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="17"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" ht="42.75" spans="1:9">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="29" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" ht="14.25" spans="1:9">
-      <c r="A15" s="10"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="32" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="33" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="24" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2096,52 +2087,52 @@
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="34" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="30" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:9">
-      <c r="A17" s="10"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="30" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:9">
-      <c r="A18" s="23"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="30" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2169,12 +2160,12 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2248,164 +2239,164 @@
       <c r="D5" s="7"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="24"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" ht="14.25" spans="1:9">
-      <c r="A7" s="10"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" ht="14.25" spans="1:9">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="24"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" ht="14.25" spans="1:9">
-      <c r="A9" s="10"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="25"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" ht="14.25" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="24"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" ht="14.25" spans="1:9">
-      <c r="A11" s="10"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="26"/>
-    </row>
-    <row r="12" ht="28.5" spans="1:9">
-      <c r="A12" s="10"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="24"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:9">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" ht="14.25" spans="1:9">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="17"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="18"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" ht="14.25" spans="1:9">
-      <c r="A15" s="10"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="27"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" ht="14.25" spans="1:9">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="17"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" ht="14.25" spans="1:9">
-      <c r="A17" s="10"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="18"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" ht="14.25" spans="1:9">
-      <c r="A18" s="23"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="17"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1"/>
